--- a/excel_routes/route_MED_ATZ_threats.xlsx
+++ b/excel_routes/route_MED_ATZ_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,26 +736,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1231</v>
+        <v>-1302</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
@@ -781,26 +781,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1231</v>
+        <v>-1302</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1216</v>
+        <v>-1231</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1176</v>
+        <v>-1231</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>579</v>
+        <v>475</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1112</v>
+        <v>-1216</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
@@ -961,26 +961,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1112</v>
+        <v>-1176</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,26 +1141,26 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1177</v>
+        <v>299</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-514</v>
+        <v>-1392</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
@@ -1186,26 +1186,26 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1392</v>
+        <v>-1332</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
@@ -1411,26 +1411,26 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1142</v>
+        <v>-1096</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1096</v>
+        <v>-1085</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
@@ -1546,26 +1546,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>752</v>
+        <v>606</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-939</v>
+        <v>-1085</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
@@ -1581,40 +1581,40 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>752</v>
+        <v>299</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1691</v>
+        <v>836</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-939</v>
+        <v>-537</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-537</v>
+        <v>-477</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -1726,26 +1726,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>359</v>
+        <v>875</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>836</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-477</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>875</v>
+        <v>279</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>39</v>
+        <v>-1412</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>279</v>
+        <v>419</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-1412</v>
+        <v>-1272</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>15</v>
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>419</v>
+        <v>528</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1272</v>
+        <v>-1163</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>528</v>
+        <v>609</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1163</v>
+        <v>-1082</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
@@ -1951,26 +1951,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>609</v>
+        <v>875</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1082</v>
+        <v>-816</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J33" s="4" t="inlineStr">
         <is>
@@ -1996,30 +1996,30 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>875</v>
+        <v>1114</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-816</v>
+        <v>-577</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -2176,17 +2176,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1260</v>
+        <v>1415</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-431</v>
+        <v>-276</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>46</v>
@@ -2197,9 +2197,9 @@
       <c r="I38" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1415</v>
+        <v>1637</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-276</v>
+        <v>-54</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>46</v>
@@ -2242,9 +2242,9 @@
       <c r="I39" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2256,40 +2256,40 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1637</v>
+        <v>329</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-54</v>
+        <v>-1362</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2311,26 +2311,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-1362</v>
+        <v>-1332</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -2369,13 +2369,13 @@
         <v>-1272</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -2414,13 +2414,13 @@
         <v>-1272</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
@@ -2446,30 +2446,30 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>549</v>
+        <v>1114</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-1142</v>
+        <v>-577</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -2536,30 +2536,30 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1114</v>
+        <v>1260</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-577</v>
+        <v>-431</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -2616,36 +2616,36 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>1580</v>
+        <v>449</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1691</v>
+        <v>992</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-111</v>
+        <v>-543</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
@@ -2675,26 +2675,26 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>689</v>
+        <v>499</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-303</v>
+        <v>-493</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J49" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2720,26 +2720,26 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>689</v>
+        <v>499</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-303</v>
+        <v>-493</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J50" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>10</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>739</v>
+        <v>985</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-253</v>
+        <v>-7</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>46</v>
@@ -2782,9 +2782,9 @@
       <c r="I51" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J51" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
@@ -2806,17 +2806,17 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-317</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>739</v>
+        <v>985</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-253</v>
+        <v>-7</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>46</v>
@@ -2827,9 +2827,9 @@
       <c r="I52" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J52" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
@@ -2851,26 +2851,26 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>799</v>
+        <v>985</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>992</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-193</v>
+        <v>-7</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2900,13 +2900,13 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>985</v>
+        <v>1120</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>992</v>
+        <v>1184</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-7</v>
+        <v>-64</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>46</v>
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2945,13 +2945,13 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>985</v>
+        <v>1120</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>992</v>
+        <v>1184</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-7</v>
+        <v>-64</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>46</v>
@@ -2976,36 +2976,36 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>985</v>
+        <v>1489</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>992</v>
+        <v>1691</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-7</v>
+        <v>-202</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
@@ -3021,27 +3021,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>799</v>
+        <v>1499</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1088</v>
+        <v>1691</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-289</v>
+        <v>-192</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>40</v>
@@ -3052,9 +3052,9 @@
       <c r="I57" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J57" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
@@ -3066,36 +3066,36 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>985</v>
+        <v>1499</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1088</v>
+        <v>1691</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-103</v>
+        <v>-192</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3103,411 +3103,6 @@
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>16-MAR-26</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>1048</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>-40</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>16-MAR-26</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>1048</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>-40</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>16-MAR-26</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F61" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I61" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>16-MAR-26</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-696</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F62" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I62" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-676</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F63" s="2" t="n">
-        <v>-64</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F64" s="2" t="n">
-        <v>-64</v>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H64" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I64" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>20-MAR-26</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>SM-964</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-576</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E65" s="2" t="n">
-        <v>1691</v>
-      </c>
-      <c r="F65" s="2" t="n">
-        <v>-392</v>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H65" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I65" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>20-MAR-26</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>SM-964</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-775</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>1499</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>1691</v>
-      </c>
-      <c r="F66" s="2" t="n">
-        <v>-192</v>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I66" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>20-MAR-26</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>SM-964</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-771</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>1499</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>1691</v>
-      </c>
-      <c r="F67" s="2" t="n">
-        <v>-192</v>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_ATZ_threats.xlsx
+++ b/excel_routes/route_MED_ATZ_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>35</v>
+        <v>-30</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>46</v>
@@ -596,35 +596,35 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>299</v>
+        <v>533</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1392</v>
+        <v>-27</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -641,35 +641,35 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>359</v>
+        <v>533</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-1332</v>
+        <v>-27</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -686,35 +686,35 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>389</v>
+        <v>590</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1691</v>
+        <v>560</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-1302</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1272</v>
+        <v>-1332</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>20</v>
@@ -781,26 +781,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1231</v>
+        <v>-1302</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1231</v>
+        <v>-1158</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1096</v>
+        <v>-1158</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>46</v>
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1039</v>
+        <v>-1101</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
@@ -961,26 +961,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1039</v>
+        <v>-1078</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -1051,26 +1051,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>742</v>
+        <v>652</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-949</v>
+        <v>-1039</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
@@ -1096,30 +1096,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1415</v>
+        <v>652</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-276</v>
+        <v>-1039</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,27 +1131,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1691</v>
+        <v>500</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1176</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>46</v>
@@ -1162,9 +1162,9 @@
       <c r="I15" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,27 +1176,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1691</v>
+        <v>500</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1096</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>46</v>
@@ -1207,9 +1207,9 @@
       <c r="I16" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,36 +1221,36 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>595</v>
+        <v>419</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1096</v>
+        <v>-1272</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
@@ -1266,36 +1266,36 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1096</v>
+        <v>-1163</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
@@ -1311,36 +1311,36 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>606</v>
+        <v>533</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1085</v>
+        <v>-1158</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
@@ -1356,36 +1356,36 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>674</v>
+        <v>549</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1017</v>
+        <v>-1142</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
@@ -1401,36 +1401,36 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>752</v>
+        <v>597</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-939</v>
+        <v>-1094</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
@@ -1446,40 +1446,40 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>299</v>
+        <v>825</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-537</v>
+        <v>-866</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>7</v>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,40 +1491,40 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>359</v>
+        <v>893</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-477</v>
+        <v>-798</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,40 +1536,40 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-982</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>389</v>
+        <v>1003</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>836</v>
+        <v>1691</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-447</v>
+        <v>-688</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1591,26 +1591,26 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>528</v>
+        <v>1260</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1163</v>
+        <v>-431</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>875</v>
+        <v>1433</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-816</v>
+        <v>-258</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>46</v>
@@ -1657,9 +1657,9 @@
       <c r="I26" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,40 +1671,40 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1114</v>
+        <v>549</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-577</v>
+        <v>-1142</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,40 +1716,40 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1114</v>
+        <v>649</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-577</v>
+        <v>-1042</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,12 +1761,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1120</v>
+        <v>893</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-571</v>
+        <v>-798</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>46</v>
@@ -1806,17 +1806,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -1851,36 +1851,36 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1415</v>
+        <v>449</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-276</v>
+        <v>-639</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
@@ -1896,40 +1896,40 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1580</v>
+        <v>499</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-111</v>
+        <v>-589</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,40 +1941,40 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>329</v>
+        <v>539</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1362</v>
+        <v>-549</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J33" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>10</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,40 +1986,40 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>359</v>
+        <v>1003</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1332</v>
+        <v>-85</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,40 +2031,40 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>419</v>
+        <v>1003</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1272</v>
+        <v>-85</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2076,40 +2076,40 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>419</v>
+        <v>1003</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1272</v>
+        <v>-85</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,40 +2121,40 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1114</v>
+        <v>1048</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-577</v>
+        <v>-40</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,27 +2166,27 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1260</v>
+        <v>1138</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1691</v>
+        <v>1184</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-431</v>
+        <v>-46</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>46</v>
@@ -2197,9 +2197,9 @@
       <c r="I38" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,30 +2221,30 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>359</v>
+        <v>1138</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>992</v>
+        <v>1184</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-633</v>
+        <v>-46</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,26 +2266,26 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>499</v>
+        <v>1278</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>992</v>
+        <v>1298</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-493</v>
+        <v>-20</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,26 +2311,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>499</v>
+        <v>1278</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>992</v>
+        <v>1298</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-493</v>
+        <v>-20</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>985</v>
+        <v>1278</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>992</v>
+        <v>1298</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>46</v>
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAY-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,17 +2401,17 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>985</v>
+        <v>590</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>992</v>
+        <v>560</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-7</v>
+        <v>30</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>46</v>
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,17 +2446,17 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>985</v>
+        <v>590</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>992</v>
+        <v>914</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-7</v>
+        <v>-324</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>46</v>
@@ -2467,9 +2467,9 @@
       <c r="I44" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,26 +2491,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>799</v>
+        <v>590</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1088</v>
+        <v>914</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-289</v>
+        <v>-324</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J45" s="5" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,17 +2536,17 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1120</v>
+        <v>590</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1088</v>
+        <v>914</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>32</v>
+        <v>-324</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>46</v>
@@ -2557,462 +2557,12 @@
       <c r="I46" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>16-MAR-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>16-MAR-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-696</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>-178</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J49" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-696</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>1260</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>-38</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-640</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>1260</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>-38</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>17-MAY-26</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>560</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>24-MAY-26</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>-324</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J53" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>24-MAY-26</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F54" s="2" t="n">
-        <v>-324</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J54" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>24-MAY-26</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-771</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>799</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-576</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>1079</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F56" s="2" t="n">
-        <v>-219</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_ATZ_threats.xlsx
+++ b/excel_routes/route_MED_ATZ_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
         <v>533</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>46</v>
@@ -601,7 +601,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
         <v>533</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-27</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,26 +736,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>359</v>
+        <v>477</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1332</v>
+        <v>-1214</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,22 +785,22 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>389</v>
+        <v>499</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1302</v>
+        <v>-1192</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flyadeal F3-775</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1158</v>
+        <v>-1184</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-694</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-678</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1101</v>
+        <v>-1128</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>46</v>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1078</v>
+        <v>-1101</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,26 +1006,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1039</v>
+        <v>-1078</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,26 +1051,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-1039</v>
+        <v>-1078</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,26 +1096,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1691</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1039</v>
+        <v>-1078</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J14" s="4" t="inlineStr">
         <is>
@@ -1131,27 +1131,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>533</v>
+        <v>840</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>500</v>
+        <v>1691</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>33</v>
+        <v>-851</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>46</v>
@@ -1162,9 +1162,9 @@
       <c r="I15" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,27 +1176,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>17-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-488</t>
+          <t>SM-964</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>533</v>
+        <v>840</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>500</v>
+        <v>1691</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>33</v>
+        <v>-851</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>46</v>
@@ -1207,9 +1207,9 @@
       <c r="I16" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,40 +1221,40 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-771</t>
+          <t>flynas XY-793</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>419</v>
+        <v>779</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1272</v>
+        <v>-309</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,40 +1266,40 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-391</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>528</v>
+        <v>799</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-1163</v>
+        <v>-289</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,40 +1311,40 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-676</t>
+          <t>flynas XY-576</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>533</v>
+        <v>829</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1158</v>
+        <v>-259</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,40 +1356,40 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>EgyptAir MS-676</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>549</v>
+        <v>1003</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1142</v>
+        <v>-85</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,40 +1401,40 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-775</t>
+          <t>EgyptAir MS-694</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>597</v>
+        <v>1003</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1094</v>
+        <v>-85</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,40 +1446,40 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-319</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>825</v>
+        <v>1003</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-866</v>
+        <v>-85</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,12 +1491,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>893</v>
+        <v>1278</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1691</v>
+        <v>1298</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-798</v>
+        <v>-20</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>46</v>
@@ -1522,9 +1522,9 @@
       <c r="I23" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,27 +1536,27 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>EgyptAir MS-696</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1003</v>
+        <v>1278</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1691</v>
+        <v>1298</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-688</v>
+        <v>-20</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>46</v>
@@ -1567,9 +1567,9 @@
       <c r="I24" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,27 +1581,27 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>EgyptAir MS-640</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1260</v>
+        <v>1278</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1691</v>
+        <v>1298</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-431</v>
+        <v>-20</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>46</v>
@@ -1612,9 +1612,9 @@
       <c r="I25" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,27 +1626,27 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>SM-982</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-696</t>
+          <t>EgyptAir MS-678</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1433</v>
+        <v>1335</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1691</v>
+        <v>1298</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-258</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>46</v>
@@ -1657,9 +1657,9 @@
       <c r="I26" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,40 +1671,40 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-793</t>
+          <t>Saudia SV-381</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>549</v>
+        <v>679</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1691</v>
+        <v>914</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1142</v>
+        <v>-235</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,40 +1716,40 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-576</t>
+          <t>Saudia SV-319</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1691</v>
+        <v>914</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1042</v>
+        <v>-235</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,27 +1761,27 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-640</t>
+          <t>Saudia SV-391</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>893</v>
+        <v>679</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1691</v>
+        <v>914</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-798</v>
+        <v>-235</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>46</v>
@@ -1792,9 +1792,9 @@
       <c r="I29" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1806,763 +1806,43 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>24-MAY-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>SM-964</t>
+          <t>SM-488</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-381</t>
+          <t>flyadeal F3-771</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1260</v>
+        <v>799</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1691</v>
+        <v>914</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-431</v>
+        <v>-115</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-771</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>449</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>-639</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-576</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>499</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>-589</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J32" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-793</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>539</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>-549</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-676</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>-85</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>-85</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-696</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>-85</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>1048</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>-40</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>16-MAR-26</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-676</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>1138</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>-46</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>16-MAR-26</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>1138</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>1184</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-46</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-694</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>1278</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-20</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-696</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>1278</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>-20</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>17-MAR-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-640</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>1278</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-20</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>17-MAY-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>560</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>24-MAY-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-381</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-324</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J44" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>24-MAY-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-319</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-324</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J45" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>24-MAY-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-488</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-391</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>-324</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J46" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_MED_ATZ_threats.xlsx
+++ b/excel_routes/route_MED_ATZ_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474FB638-74E5-4EE7-A533-94C361C9FE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8B7201-EBD4-4476-8B43-37C8DC1AA8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -60,76 +60,76 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>13-FEB-26</t>
+    <t>16-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-488</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-676</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-694</t>
+  </si>
+  <si>
+    <t>17-FEB-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-696</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-640</t>
+  </si>
+  <si>
+    <t>20-FEB-26</t>
   </si>
   <si>
     <t>SM-964</t>
   </si>
   <si>
-    <t>EgyptAir MS-676</t>
-  </si>
-  <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-696</t>
-  </si>
-  <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-488</t>
+    <t>flyadeal F3-771</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>flynas XY-576</t>
+  </si>
+  <si>
+    <t>flyadeal F3-775</t>
+  </si>
+  <si>
+    <t>Saudia SV-391</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-678</t>
+  </si>
+  <si>
+    <t>Saudia SV-381</t>
+  </si>
+  <si>
+    <t>Saudia SV-319</t>
+  </si>
+  <si>
+    <t>14-MAR-26</t>
   </si>
   <si>
     <t>flynas XY-793</t>
   </si>
   <si>
-    <t>EgyptAir MS-694</t>
-  </si>
-  <si>
-    <t>17-FEB-26</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-640</t>
-  </si>
-  <si>
-    <t>20-FEB-26</t>
-  </si>
-  <si>
-    <t>Saudia SV-381</t>
-  </si>
-  <si>
-    <t>HIGH THREAT ALERT - NEED ACTION</t>
-  </si>
-  <si>
-    <t>Saudia SV-319</t>
-  </si>
-  <si>
-    <t>Saudia SV-391</t>
-  </si>
-  <si>
-    <t>flyadeal F3-771</t>
-  </si>
-  <si>
-    <t>flynas XY-576</t>
-  </si>
-  <si>
-    <t>flyadeal F3-775</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-678</t>
-  </si>
-  <si>
-    <t>Saudia SV-4057</t>
-  </si>
-  <si>
     <t>MEDIUM THREAT - MONITOR</t>
   </si>
   <si>
-    <t>Saudia SV-4067</t>
+    <t>17-MAR-26</t>
+  </si>
+  <si>
+    <t>24-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,13 +599,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="E2" s="2">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="F2" s="2">
-        <v>-67</v>
+        <v>-27</v>
       </c>
       <c r="G2" s="2">
         <v>46</v>
@@ -634,13 +634,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>703</v>
+        <v>533</v>
       </c>
       <c r="E3" s="2">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="F3" s="2">
-        <v>23</v>
+        <v>-27</v>
       </c>
       <c r="G3" s="2">
         <v>46</v>
@@ -663,28 +663,28 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="2">
-        <v>609</v>
+        <v>533</v>
       </c>
       <c r="E4" s="2">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2">
-        <v>-71</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
@@ -698,19 +698,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>703</v>
+        <v>533</v>
       </c>
       <c r="E5" s="2">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="F5" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2">
         <v>46</v>
@@ -730,34 +730,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>703</v>
+        <v>477</v>
       </c>
       <c r="E6" s="2">
-        <v>680</v>
+        <v>1691</v>
       </c>
       <c r="F6" s="2">
+        <v>-1214</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="2">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -765,34 +765,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="E7" s="2">
-        <v>500</v>
+        <v>1691</v>
       </c>
       <c r="F7" s="2">
-        <v>33</v>
+        <v>-1192</v>
       </c>
       <c r="G7" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -800,34 +800,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="E8" s="2">
-        <v>500</v>
+        <v>1691</v>
       </c>
       <c r="F8" s="2">
-        <v>33</v>
+        <v>-1184</v>
       </c>
       <c r="G8" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -835,34 +835,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>223</v>
+        <v>533</v>
       </c>
       <c r="E9" s="2">
         <v>1691</v>
       </c>
       <c r="F9" s="2">
-        <v>-1468</v>
+        <v>-1158</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>30</v>
+        <v>-16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -870,34 +870,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>223</v>
+        <v>563</v>
       </c>
       <c r="E10" s="2">
         <v>1691</v>
       </c>
       <c r="F10" s="2">
-        <v>-1468</v>
+        <v>-1128</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>30</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -905,34 +905,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>223</v>
+        <v>590</v>
       </c>
       <c r="E11" s="2">
         <v>1691</v>
       </c>
       <c r="F11" s="2">
-        <v>-1468</v>
+        <v>-1101</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>30</v>
+        <v>-16</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -940,34 +940,34 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>299</v>
+        <v>613</v>
       </c>
       <c r="E12" s="2">
         <v>1691</v>
       </c>
       <c r="F12" s="2">
-        <v>-1392</v>
+        <v>-1078</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2">
         <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -975,34 +975,34 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>309</v>
+        <v>613</v>
       </c>
       <c r="E13" s="2">
         <v>1691</v>
       </c>
       <c r="F13" s="2">
-        <v>-1382</v>
+        <v>-1078</v>
       </c>
       <c r="G13" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -1010,34 +1010,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
-        <v>329</v>
+        <v>613</v>
       </c>
       <c r="E14" s="2">
         <v>1691</v>
       </c>
       <c r="F14" s="2">
-        <v>-1362</v>
+        <v>-1078</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
@@ -1045,22 +1045,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>590</v>
+        <v>840</v>
       </c>
       <c r="E15" s="2">
         <v>1691</v>
       </c>
       <c r="F15" s="2">
-        <v>-1101</v>
+        <v>-851</v>
       </c>
       <c r="G15" s="2">
         <v>46</v>
@@ -1072,7 +1072,7 @@
         <v>-16</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>15</v>
@@ -1080,22 +1080,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
-        <v>613</v>
+        <v>840</v>
       </c>
       <c r="E16" s="2">
         <v>1691</v>
       </c>
       <c r="F16" s="2">
-        <v>-1078</v>
+        <v>-851</v>
       </c>
       <c r="G16" s="2">
         <v>46</v>
@@ -1107,7 +1107,7 @@
         <v>-16</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
@@ -1115,34 +1115,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
-        <v>613</v>
+        <v>779</v>
       </c>
       <c r="E17" s="2">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F17" s="2">
-        <v>-1078</v>
+        <v>-309</v>
       </c>
       <c r="G17" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2">
         <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>25</v>
+        <v>-10</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
@@ -1150,34 +1150,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2">
-        <v>613</v>
+        <v>799</v>
       </c>
       <c r="E18" s="2">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F18" s="2">
-        <v>-1078</v>
+        <v>-289</v>
       </c>
       <c r="G18" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
         <v>30</v>
       </c>
       <c r="I18" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>25</v>
+        <v>-10</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>15</v>
@@ -1185,34 +1185,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2">
-        <v>613</v>
+        <v>829</v>
       </c>
       <c r="E19" s="2">
-        <v>1691</v>
+        <v>1088</v>
       </c>
       <c r="F19" s="2">
-        <v>-1078</v>
+        <v>-259</v>
       </c>
       <c r="G19" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2">
         <v>30</v>
       </c>
       <c r="I19" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>25</v>
+        <v>-10</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>15</v>
@@ -1220,34 +1220,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E20" s="2">
         <v>1088</v>
       </c>
-      <c r="E20" s="2">
-        <v>1691</v>
-      </c>
       <c r="F20" s="2">
-        <v>-603</v>
+        <v>-85</v>
       </c>
       <c r="G20" s="2">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2">
         <v>30</v>
       </c>
       <c r="I20" s="2">
-        <v>7</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>33</v>
+        <v>-16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
@@ -1255,36 +1255,351 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-85</v>
+      </c>
+      <c r="G21" s="2">
+        <v>46</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-85</v>
+      </c>
+      <c r="G22" s="2">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1278</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>46</v>
+      </c>
+      <c r="H23" s="2">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1278</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1278</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G25" s="2">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1335</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1298</v>
+      </c>
+      <c r="F26" s="2">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2">
+        <v>46</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2">
-        <v>1131</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1691</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-560</v>
-      </c>
-      <c r="G21" s="2">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2">
-        <v>7</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>679</v>
+      </c>
+      <c r="E27" s="2">
+        <v>914</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-235</v>
+      </c>
+      <c r="G27" s="2">
+        <v>46</v>
+      </c>
+      <c r="H27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <v>679</v>
+      </c>
+      <c r="E28" s="2">
+        <v>914</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-235</v>
+      </c>
+      <c r="G28" s="2">
+        <v>46</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>679</v>
+      </c>
+      <c r="E29" s="2">
+        <v>914</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-235</v>
+      </c>
+      <c r="G29" s="2">
+        <v>46</v>
+      </c>
+      <c r="H29" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2">
+        <v>799</v>
+      </c>
+      <c r="E30" s="2">
+        <v>914</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-115</v>
+      </c>
+      <c r="G30" s="2">
+        <v>40</v>
+      </c>
+      <c r="H30" s="2">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
